--- a/src/SyntacticAnalyzer/Grammar.xlsx
+++ b/src/SyntacticAnalyzer/Grammar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\General\Trabajos\ProgrammingLanguages\src\SyntacticAnalyzer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C04865-0880-4916-A515-55EC90ECEE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E57AFC-2429-44F1-A3B5-DEE0E8EA2451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="71">
   <si>
     <t>S</t>
   </si>
@@ -364,26 +364,369 @@
     <t>SetArrayDimension</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">id token_cor_izq </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">NumericalExpresion </t>
+    <t>NumericalExpression</t>
+  </si>
+  <si>
+    <t>NumericalExpressionOp</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">token_par_izq </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">NumericalExpression </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>token_par_der</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> NumericalExpressionOp</t>
+    </r>
+  </si>
+  <si>
+    <t>BinaryOp NumericalExpression NumericalExpressionOp</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>token_entero</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> NumericalExpressionOp</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>token_real</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> NumericalExpressionOp</t>
+    </r>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>IdValue</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IdValue</t>
+    </r>
+  </si>
+  <si>
+    <t>IdFullList</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">subproceso id token_asig id token_par_izq </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">IdFullList </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">token_par_der </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ProcessBody </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>finsubproceso</t>
+    </r>
+  </si>
+  <si>
+    <t>ExpressionFullList</t>
+  </si>
+  <si>
+    <t>ExpressionList</t>
+  </si>
+  <si>
+    <t>Expression ExpressionList</t>
+  </si>
+  <si>
+    <r>
+      <t>token_par_izq</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ExpressionFullList </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>token_par_der</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">token_coma </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ExpressionFullList</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">token_coma </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IdFullList</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">escribir </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ExpressionFullList</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> token_pyc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">leer </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IdFullList</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> token_pyc</t>
+    </r>
+  </si>
+  <si>
+    <t>NumericalExpressionFullList</t>
+  </si>
+  <si>
+    <t>NumericalExpressionList</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">dimension id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ArrayDimensions </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>token_pyc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">token_cor_izq </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">NumericalExpressionFullList </t>
     </r>
     <r>
       <rPr>
@@ -395,382 +738,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>token_cor_der</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">dimension </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">SetArrayDimensions SetArrayDimensionsList </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>token_pyc</t>
-    </r>
-  </si>
-  <si>
-    <t>SetArrayDimensionsList</t>
-  </si>
-  <si>
-    <t>NumericalExpression</t>
-  </si>
-  <si>
-    <t>NumericalExpressionOp</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">token_par_izq </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">NumericalExpression </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>token_par_der</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> NumericalExpressionOp</t>
-    </r>
-  </si>
-  <si>
-    <t>BinaryOp NumericalExpression NumericalExpressionOp</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>token_entero</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> NumericalExpressionOp</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>token_real</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> NumericalExpressionOp</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">token_coma </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ArrayDimensions</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SetArrayDimensionsList</t>
-    </r>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>IdValue</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">id </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>IdValue</t>
-    </r>
-  </si>
-  <si>
-    <t>IdFullList</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">subproceso id token_asig id token_par_izq </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">IdFullList </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">token_par_der </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ProcessBody </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>finsubproceso</t>
-    </r>
-  </si>
-  <si>
-    <t>ExpressionFullList</t>
-  </si>
-  <si>
-    <t>ExpressionList</t>
-  </si>
-  <si>
-    <t>Expression ExpressionList</t>
-  </si>
-  <si>
-    <r>
-      <t>token_par_izq</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ExpressionFullList </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>token_par_der</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">token_coma </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ExpressionFullList</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">token_coma </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>IdFullList</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">escribir </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ExpressionFullList</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> token_pyc</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">leer </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>IdFullList</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> token_pyc</t>
     </r>
   </si>
 </sst>
@@ -1639,15 +1606,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C103"/>
+  <dimension ref="B2:C105"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
     <col min="3" max="3" width="90.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1664,11 +1631,11 @@
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>48</v>
+      <c r="C4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
@@ -1719,7 +1686,7 @@
         <v>30</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
@@ -1727,7 +1694,7 @@
         <v>30</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
@@ -1831,23 +1798,23 @@
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C32" s="1"/>
     </row>
@@ -1873,15 +1840,15 @@
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>34</v>
@@ -1889,15 +1856,15 @@
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C40" s="3"/>
     </row>
@@ -1906,7 +1873,7 @@
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>43</v>
@@ -1917,7 +1884,7 @@
         <v>41</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
@@ -1927,211 +1894,201 @@
       <c r="C44" s="5"/>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="3" t="s">
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" t="s">
         <v>51</v>
       </c>
-      <c r="C46" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C50" s="1"/>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>30</v>
+      <c r="B55" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="5" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>46</v>
+        <v>1</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B64" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C60" s="5"/>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="4" t="s">
+      <c r="C64" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" s="5"/>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C66" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C66" s="2"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C68" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="3" t="s">
+      <c r="C70" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B71" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C69" s="3"/>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
+      <c r="C71" s="3"/>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
         <v>18</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C73" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
         <v>18</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C74" s="2" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C76" s="9" t="s">
-        <v>17</v>
+      <c r="C76" s="7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C77" s="6" t="s">
-        <v>10</v>
+      <c r="C77" s="9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C78" s="6" t="s">
-        <v>8</v>
+      <c r="C78" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
@@ -2139,17 +2096,33 @@
         <v>35</v>
       </c>
       <c r="C79" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B80" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C81" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C90" s="2"/>
-    </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C91" s="2"/>
-    </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C103" s="1"/>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C92" s="2"/>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C93" s="2"/>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C105" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/src/SyntacticAnalyzer/Grammar.xlsx
+++ b/src/SyntacticAnalyzer/Grammar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\General\Trabajos\ProgrammingLanguages\src\SyntacticAnalyzer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E57AFC-2429-44F1-A3B5-DEE0E8EA2451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D938865-C45D-44AC-B807-623450C5EBCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="87">
   <si>
     <t>S</t>
   </si>
@@ -738,6 +738,118 @@
         <scheme val="minor"/>
       </rPr>
       <t>token_cor_der</t>
+    </r>
+  </si>
+  <si>
+    <t>If</t>
+  </si>
+  <si>
+    <t>BooleanExpression</t>
+  </si>
+  <si>
+    <t>BooleanExpressionOp</t>
+  </si>
+  <si>
+    <t>BooleanBinaryOp</t>
+  </si>
+  <si>
+    <t>BooleanUnaryOp</t>
+  </si>
+  <si>
+    <t>token_dif</t>
+  </si>
+  <si>
+    <t>token_menor_igual</t>
+  </si>
+  <si>
+    <t>token_menor</t>
+  </si>
+  <si>
+    <t>token_mayor</t>
+  </si>
+  <si>
+    <t>token_mayor_igual</t>
+  </si>
+  <si>
+    <t>Else</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">sino </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ProcessBody</t>
+    </r>
+  </si>
+  <si>
+    <t>ElseIf</t>
+  </si>
+  <si>
+    <t>Expression BooleanExpressionOp</t>
+  </si>
+  <si>
+    <t>BooleanBinaryOp BooleanExpression BooleanExpressionOp</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>si</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> BooleanExpression </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>entonces</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ProcessBody ElseIf </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>finsi</t>
     </r>
   </si>
 </sst>
@@ -887,7 +999,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1070,12 +1182,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1240,17 +1346,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1606,10 +1710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C105"/>
+  <dimension ref="B2:C123"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1642,10 +1746,10 @@
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1681,448 +1785,570 @@
         <v>15</v>
       </c>
     </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="2"/>
+    </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C24" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C27" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C28" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C29" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C30" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C31" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C32" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C33" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="5" t="s">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C34" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="5" t="s">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C35" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="3"/>
+      <c r="C36" s="6"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="6"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C41" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" s="3"/>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C44" s="5"/>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>48</v>
-      </c>
-      <c r="C46" t="s">
-        <v>53</v>
+        <v>60</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>48</v>
-      </c>
-      <c r="C47" t="s">
-        <v>52</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C47" s="1"/>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48" t="s">
-        <v>50</v>
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>67</v>
-      </c>
-      <c r="C50" t="s">
-        <v>61</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C50" s="1"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>68</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="C51" s="1"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>49</v>
-      </c>
-      <c r="C54" t="s">
-        <v>51</v>
+        <v>55</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C59" s="3"/>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>48</v>
+      </c>
+      <c r="C63" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>48</v>
+      </c>
+      <c r="C64" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>48</v>
+      </c>
+      <c r="C65" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>68</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="5" t="s">
+      <c r="C71" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B74" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C74" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="5" t="s">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B75" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C75" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="5" t="s">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B76" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C76" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="5" t="s">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B77" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C77" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="5" t="s">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B78" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C78" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="5" t="s">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B79" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C79" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="5" t="s">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B80" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C80" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C81" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="5" t="s">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C82" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="5" t="s">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C65" s="5"/>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="4" t="s">
+      <c r="C83" s="3"/>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B84" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C84" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="3" t="s">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B86" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C86" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="3" t="s">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B88" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C88" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="3" t="s">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B89" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C71" s="3"/>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
+      <c r="C89" s="3"/>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
         <v>18</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C91" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
         <v>18</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C92" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="5" t="s">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B94" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C94" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B77" s="5" t="s">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B95" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="C95" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B78" s="5" t="s">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B96" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="C96" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B79" s="5" t="s">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B97" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C79" s="6" t="s">
+      <c r="C97" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B80" s="5" t="s">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B98" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="C98" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="5" t="s">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B99" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C81" s="6" t="s">
+      <c r="C99" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C92" s="2"/>
-    </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C93" s="2"/>
-    </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C105" s="1"/>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C110" s="2"/>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C111" s="2"/>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C123" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/src/SyntacticAnalyzer/Grammar.xlsx
+++ b/src/SyntacticAnalyzer/Grammar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\General\Trabajos\ProgrammingLanguages\src\SyntacticAnalyzer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D938865-C45D-44AC-B807-623450C5EBCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BA3030-A822-4EEC-B3FE-F2B7C1C9E76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="123">
   <si>
     <t>S</t>
   </si>
@@ -125,16 +125,650 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>proceso id</t>
+    <t>ProcessBody</t>
+  </si>
+  <si>
+    <t>ProcessAction ProcessActionList</t>
+  </si>
+  <si>
+    <t>ProcessActionList</t>
+  </si>
+  <si>
+    <t>ProcessAction</t>
+  </si>
+  <si>
+    <t>Cmd</t>
+  </si>
+  <si>
+    <t>numero</t>
+  </si>
+  <si>
+    <t>texto</t>
+  </si>
+  <si>
+    <t>cadena</t>
+  </si>
+  <si>
+    <t>ArrayDimensions</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>ExpressionOp</t>
+  </si>
+  <si>
+    <t>Value ExpressionOp</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">token_par_izq </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Expression </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>token_par_der</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ExpressionOp</t>
+    </r>
+  </si>
+  <si>
+    <t>BinaryOp Expression ExpressionOp</t>
+  </si>
+  <si>
+    <t>UnaryOp Expression ExpressionOp</t>
+  </si>
+  <si>
+    <t>IdList</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>definir id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> IdList</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> como</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DefType</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> token_pyc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IdList</t>
+    </r>
+  </si>
+  <si>
+    <t>SubProcess</t>
+  </si>
+  <si>
+    <t>SubProcess Process</t>
+  </si>
+  <si>
+    <t>token_pyc</t>
+  </si>
+  <si>
+    <t>SetArrayDimension</t>
+  </si>
+  <si>
+    <t>NumericalExpression</t>
+  </si>
+  <si>
+    <t>NumericalExpressionOp</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">token_par_izq </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">NumericalExpression </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>token_par_der</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> NumericalExpressionOp</t>
+    </r>
+  </si>
+  <si>
+    <t>BinaryOp NumericalExpression NumericalExpressionOp</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>token_entero</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> NumericalExpressionOp</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>token_real</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> NumericalExpressionOp</t>
+    </r>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>IdValue</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IdValue</t>
+    </r>
+  </si>
+  <si>
+    <t>IdFullList</t>
+  </si>
+  <si>
+    <t>ExpressionFullList</t>
+  </si>
+  <si>
+    <t>ExpressionList</t>
+  </si>
+  <si>
+    <t>Expression ExpressionList</t>
+  </si>
+  <si>
+    <r>
+      <t>token_par_izq</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ExpressionFullList </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>token_par_der</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">token_coma </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ExpressionFullList</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">token_coma </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IdFullList</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">escribir </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ExpressionFullList</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> token_pyc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">leer </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IdFullList</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> token_pyc</t>
+    </r>
+  </si>
+  <si>
+    <t>NumericalExpressionFullList</t>
+  </si>
+  <si>
+    <t>NumericalExpressionList</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">token_cor_izq </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">NumericalExpressionFullList </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>token_cor_der</t>
+    </r>
+  </si>
+  <si>
+    <t>If</t>
+  </si>
+  <si>
+    <t>BooleanExpression</t>
+  </si>
+  <si>
+    <t>BooleanExpressionOp</t>
+  </si>
+  <si>
+    <t>BooleanBinaryOp</t>
+  </si>
+  <si>
+    <t>BooleanUnaryOp</t>
+  </si>
+  <si>
+    <t>token_dif</t>
+  </si>
+  <si>
+    <t>token_menor_igual</t>
+  </si>
+  <si>
+    <t>token_menor</t>
+  </si>
+  <si>
+    <t>token_mayor</t>
+  </si>
+  <si>
+    <t>token_mayor_igual</t>
+  </si>
+  <si>
+    <t>Else</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">sino </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ProcessBody</t>
+    </r>
+  </si>
+  <si>
+    <t>ElseIf</t>
+  </si>
+  <si>
+    <t>Expression BooleanExpressionOp</t>
+  </si>
+  <si>
+    <t>BooleanBinaryOp BooleanExpression BooleanExpressionOp</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>si</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> BooleanExpression </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>entonces</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ProcessBody ElseIf </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>finsi</t>
+    </r>
+  </si>
+  <si>
+    <t>For</t>
+  </si>
+  <si>
+    <t>ForWithStep</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">token_neg </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NumericalExpression</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NumericalExpression</t>
+    </r>
+  </si>
+  <si>
+    <t>ForBody</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hacer</t>
     </r>
     <r>
       <rPr>
@@ -155,90 +789,227 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>finproceso</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>algoritmo id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ProcessBody </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>finalgoritmo</t>
-    </r>
-  </si>
-  <si>
-    <t>ProcessBody</t>
-  </si>
-  <si>
-    <t>ProcessAction ProcessActionList</t>
-  </si>
-  <si>
-    <t>ProcessActionList</t>
-  </si>
-  <si>
-    <t>ProcessAction</t>
-  </si>
-  <si>
-    <t>Cmd</t>
-  </si>
-  <si>
-    <t>numero</t>
-  </si>
-  <si>
-    <t>texto</t>
-  </si>
-  <si>
-    <t>cadena</t>
-  </si>
-  <si>
-    <t>ArrayDimensions</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>ExpressionOp</t>
-  </si>
-  <si>
-    <t>Value ExpressionOp</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">token_par_izq </t>
+      <t>finpara</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">para </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">id </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>token_asig</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Expression </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">hasta </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NumericalExpression ForWithStep</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>con paso</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Expression ForBody</t>
+    </r>
+  </si>
+  <si>
+    <t>While</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">repetir </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ProcessBody </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">hasta que </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BooleanExpression</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">mientras </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">BooleanExpression </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">hacer </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ProcessBody </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>finmientras</t>
+    </r>
+  </si>
+  <si>
+    <t>token_igual</t>
+  </si>
+  <si>
+    <t>According</t>
+  </si>
+  <si>
+    <t>AccordingBody</t>
+  </si>
+  <si>
+    <t>AccordingCaseList</t>
+  </si>
+  <si>
+    <t>AccordingDefault</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">de otro modo token_dosp </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ProcessBody</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">caso </t>
     </r>
     <r>
       <rPr>
@@ -259,252 +1030,219 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>token_par_der</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ExpressionOp</t>
-    </r>
-  </si>
-  <si>
-    <t>BinaryOp Expression ExpressionOp</t>
-  </si>
-  <si>
-    <t>UnaryOp Expression ExpressionOp</t>
-  </si>
-  <si>
-    <t>IdList</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>definir id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> IdList</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> como</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> DefType</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> token_pyc</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">id </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>IdList</t>
-    </r>
-  </si>
-  <si>
-    <t>SubProcess</t>
-  </si>
-  <si>
-    <t>SubProcess Process</t>
-  </si>
-  <si>
-    <t>token_pyc</t>
-  </si>
-  <si>
-    <t>SetArrayDimension</t>
-  </si>
-  <si>
-    <t>NumericalExpression</t>
-  </si>
-  <si>
-    <t>NumericalExpressionOp</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">token_par_izq </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">NumericalExpression </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>token_par_der</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> NumericalExpressionOp</t>
-    </r>
-  </si>
-  <si>
-    <t>BinaryOp NumericalExpression NumericalExpressionOp</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>token_entero</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> NumericalExpressionOp</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>token_real</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> NumericalExpressionOp</t>
-    </r>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>IdValue</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">id </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>IdValue</t>
-    </r>
-  </si>
-  <si>
-    <t>IdFullList</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">subproceso id token_asig id token_par_izq </t>
+      <t xml:space="preserve">token_dosp </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ProcessBody</t>
+    </r>
+  </si>
+  <si>
+    <t>AccordingCaseList AccordingDefault</t>
+  </si>
+  <si>
+    <t>AccordingCase</t>
+  </si>
+  <si>
+    <t>AccordingCase AccordingCaseList</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>segun</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id hacer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> AccordingBody </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>finsegun</t>
+    </r>
+  </si>
+  <si>
+    <t>SetArrayDimensionList</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dimension id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ArrayDimensions SetArrayDimensionList </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>token_pyc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>token_coma id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ArrayDimensions SetArrayDimensionList</t>
+    </r>
+  </si>
+  <si>
+    <t>ProcessClose</t>
+  </si>
+  <si>
+    <t>finproceso</t>
+  </si>
+  <si>
+    <t>finalgoritmo</t>
+  </si>
+  <si>
+    <t>ProcessOpen</t>
+  </si>
+  <si>
+    <t>proceso</t>
+  </si>
+  <si>
+    <t>algoritmo</t>
+  </si>
+  <si>
+    <r>
+      <t>ProcessOpen</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ProcessBody ProcessClose</t>
+    </r>
+  </si>
+  <si>
+    <t>SubProcessClose</t>
+  </si>
+  <si>
+    <t>SubProcessOpen</t>
+  </si>
+  <si>
+    <t>subproceso</t>
+  </si>
+  <si>
+    <t>subalgoritmo</t>
+  </si>
+  <si>
+    <t>finsubproceso</t>
+  </si>
+  <si>
+    <t>finsubalgoritmo</t>
+  </si>
+  <si>
+    <r>
+      <t>SubProcessOpen</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> id token_asig id token_par_izq </t>
     </r>
     <r>
       <rPr>
@@ -535,321 +1273,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">ProcessBody </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>finsubproceso</t>
-    </r>
-  </si>
-  <si>
-    <t>ExpressionFullList</t>
-  </si>
-  <si>
-    <t>ExpressionList</t>
-  </si>
-  <si>
-    <t>Expression ExpressionList</t>
-  </si>
-  <si>
-    <r>
-      <t>token_par_izq</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ExpressionFullList </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>token_par_der</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">token_coma </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ExpressionFullList</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">token_coma </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>IdFullList</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">escribir </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ExpressionFullList</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> token_pyc</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">leer </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>IdFullList</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> token_pyc</t>
-    </r>
-  </si>
-  <si>
-    <t>NumericalExpressionFullList</t>
-  </si>
-  <si>
-    <t>NumericalExpressionList</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">dimension id </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ArrayDimensions </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>token_pyc</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">token_cor_izq </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">NumericalExpressionFullList </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>token_cor_der</t>
-    </r>
-  </si>
-  <si>
-    <t>If</t>
-  </si>
-  <si>
-    <t>BooleanExpression</t>
-  </si>
-  <si>
-    <t>BooleanExpressionOp</t>
-  </si>
-  <si>
-    <t>BooleanBinaryOp</t>
-  </si>
-  <si>
-    <t>BooleanUnaryOp</t>
-  </si>
-  <si>
-    <t>token_dif</t>
-  </si>
-  <si>
-    <t>token_menor_igual</t>
-  </si>
-  <si>
-    <t>token_menor</t>
-  </si>
-  <si>
-    <t>token_mayor</t>
-  </si>
-  <si>
-    <t>token_mayor_igual</t>
-  </si>
-  <si>
-    <t>Else</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">sino </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ProcessBody</t>
-    </r>
-  </si>
-  <si>
-    <t>ElseIf</t>
-  </si>
-  <si>
-    <t>Expression BooleanExpressionOp</t>
-  </si>
-  <si>
-    <t>BooleanBinaryOp BooleanExpression BooleanExpressionOp</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>si</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> BooleanExpression </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>entonces</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ProcessBody ElseIf </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>finsi</t>
+      <t>ProcessBody SubProcessClose</t>
     </r>
   </si>
 </sst>
@@ -1710,16 +2134,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C123"/>
+  <dimension ref="B2:C132"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="28.28515625" customWidth="1"/>
-    <col min="3" max="3" width="90.28515625" customWidth="1"/>
+    <col min="3" max="3" width="92.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
@@ -1727,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
@@ -1735,620 +2159,848 @@
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" t="s">
-        <v>70</v>
+      <c r="B4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C5" s="2"/>
+      <c r="B5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="2"/>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>85</v>
+        <v>70</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
+      <c r="B27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="3"/>
-      <c r="C36" s="6"/>
+      <c r="C36" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C38" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>81</v>
+        <v>3</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="3"/>
+      <c r="C45" s="6"/>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" s="6"/>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+      <c r="C50" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>59</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>60</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>60</v>
-      </c>
-      <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>36</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>36</v>
-      </c>
-      <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C51" s="1"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>55</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="C53" s="1"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>55</v>
-      </c>
-      <c r="C55" s="3"/>
+        <v>57</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>57</v>
+      </c>
       <c r="C56" s="1"/>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C57" s="1"/>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>64</v>
+      <c r="B58" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C59" s="3"/>
+      <c r="B59" t="s">
+        <v>34</v>
+      </c>
+      <c r="C59" s="1"/>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
+      <c r="C60" s="1"/>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>86</v>
+      <c r="B61" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>48</v>
-      </c>
-      <c r="C63" t="s">
-        <v>53</v>
+        <v>84</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>48</v>
-      </c>
-      <c r="C64" t="s">
+        <v>84</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>48</v>
-      </c>
-      <c r="C65" t="s">
-        <v>50</v>
+      <c r="C66" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>67</v>
-      </c>
-      <c r="C67" t="s">
-        <v>61</v>
+        <v>53</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>68</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C69" s="3"/>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C70" s="1"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>49</v>
-      </c>
-      <c r="C71" t="s">
-        <v>51</v>
+      <c r="B71" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>49</v>
-      </c>
+      <c r="B72" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B73" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C73" s="3"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>46</v>
+      </c>
+      <c r="C77" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>46</v>
+      </c>
+      <c r="C78" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>46</v>
+      </c>
+      <c r="C79" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>46</v>
+      </c>
+      <c r="C80" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>46</v>
+      </c>
+      <c r="C81" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>64</v>
+      </c>
+      <c r="C83" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>47</v>
+      </c>
+      <c r="C87" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B90" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C75" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B77" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C77" s="5" t="s">
+      <c r="C90" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B91" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B92" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C92" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B78" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B79" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B80" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B82" s="3" t="s">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B93" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B83" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C83" s="3"/>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B84" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B86" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B88" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B89" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C89" s="3"/>
-    </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
-        <v>18</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
-        <v>18</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>54</v>
+        <v>27</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>17</v>
+        <v>27</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>10</v>
+        <v>27</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C99" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B100" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B101" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B102" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C102" s="3"/>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B103" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B104" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B105" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B106" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B107" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B108" s="3"/>
+      <c r="C108" s="5"/>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B109" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>45</v>
+      </c>
+      <c r="C111" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>106</v>
+      </c>
+      <c r="C112" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B113" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C113" s="2"/>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B115" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B116" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C116" s="3"/>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B117" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B118" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B119" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B120" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>18</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>18</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B125" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B126" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B127" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B128" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B129" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B130" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C130" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C110" s="2"/>
-    </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C111" s="2"/>
-    </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C123" s="1"/>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>91</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/src/SyntacticAnalyzer/Grammar.xlsx
+++ b/src/SyntacticAnalyzer/Grammar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\General\Trabajos\ProgrammingLanguages\src\SyntacticAnalyzer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BA3030-A822-4EEC-B3FE-F2B7C1C9E76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56F37EC-D2A6-49D3-ADC3-DEEB2B1259E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="124">
   <si>
     <t>S</t>
   </si>
@@ -1275,6 +1275,9 @@
       </rPr>
       <t>ProcessBody SubProcessClose</t>
     </r>
+  </si>
+  <si>
+    <t>token_pot</t>
   </si>
 </sst>
 </file>
@@ -2136,8 +2139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:C132"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="C113" sqref="C113"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2266,22 +2269,22 @@
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="2"/>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>95</v>
-      </c>
+      <c r="C21" s="2"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>70</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
@@ -2289,7 +2292,7 @@
         <v>70</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
@@ -2297,7 +2300,7 @@
         <v>70</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
@@ -2305,7 +2308,7 @@
         <v>70</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
@@ -2313,72 +2316,72 @@
         <v>70</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C28" s="2"/>
-    </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="C29" s="2"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="2"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="C31" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="2"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>28</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
@@ -2386,7 +2389,7 @@
         <v>3</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
@@ -2394,7 +2397,7 @@
         <v>3</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
@@ -2402,7 +2405,7 @@
         <v>3</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
@@ -2410,7 +2413,7 @@
         <v>3</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
@@ -2418,7 +2421,7 @@
         <v>3</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
@@ -2426,7 +2429,7 @@
         <v>3</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
@@ -2434,49 +2437,49 @@
         <v>3</v>
       </c>
       <c r="C44" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="3"/>
-      <c r="C45" s="6"/>
-    </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>78</v>
-      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="6"/>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C47" s="6"/>
+      <c r="C47" s="6" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" s="6"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C49" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="3" t="s">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C51" s="5" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
@@ -2484,76 +2487,76 @@
         <v>7</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C53" s="1"/>
-    </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>56</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="C54" s="1"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>57</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>57</v>
       </c>
-      <c r="C56" s="1"/>
+      <c r="C56" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>57</v>
+      </c>
       <c r="C57" s="1"/>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>34</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="C58" s="1"/>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>34</v>
       </c>
-      <c r="C59" s="1"/>
+      <c r="C59" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>34</v>
+      </c>
       <c r="C60" s="1"/>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>83</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="C61" s="1"/>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
@@ -2561,85 +2564,85 @@
         <v>84</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>84</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C65" s="1"/>
-    </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>52</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="C66" s="1"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>53</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>32</v>
+        <v>52</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>53</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>59</v>
+      <c r="C68" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>53</v>
       </c>
-      <c r="C69" s="3"/>
+      <c r="C69" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C70" s="1"/>
+      <c r="B70" t="s">
+        <v>53</v>
+      </c>
+      <c r="C70" s="3"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>41</v>
-      </c>
+      <c r="C71" s="1"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C73" s="3"/>
+      <c r="C73" s="5" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="3"/>
+      <c r="B74" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="C74" s="3"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B76" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C76" s="3" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>46</v>
-      </c>
-      <c r="C77" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
@@ -2647,7 +2650,7 @@
         <v>46</v>
       </c>
       <c r="C78" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
@@ -2655,7 +2658,7 @@
         <v>46</v>
       </c>
       <c r="C79" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
@@ -2663,7 +2666,7 @@
         <v>46</v>
       </c>
       <c r="C80" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
@@ -2671,73 +2674,73 @@
         <v>46</v>
       </c>
       <c r="C81" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>46</v>
+      </c>
+      <c r="C82" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
-        <v>64</v>
-      </c>
-      <c r="C83" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>65</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
+      </c>
+      <c r="C84" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
-        <v>47</v>
-      </c>
-      <c r="C87" t="s">
-        <v>49</v>
+      <c r="C85" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B90" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>115</v>
+      <c r="C88" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="3" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C92" s="5" t="s">
-        <v>6</v>
+      <c r="C92" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C93" s="3" t="s">
-        <v>28</v>
+      <c r="C93" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
@@ -2745,7 +2748,7 @@
         <v>27</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
@@ -2753,7 +2756,7 @@
         <v>27</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>83</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
@@ -2761,7 +2764,7 @@
         <v>27</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
@@ -2769,7 +2772,7 @@
         <v>27</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
@@ -2777,7 +2780,7 @@
         <v>27</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
@@ -2785,45 +2788,45 @@
         <v>27</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C100" s="6" t="s">
-        <v>44</v>
+      <c r="C100" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C102" s="3"/>
+      <c r="C102" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C103" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="C103" s="3"/>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>110</v>
+        <v>24</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
@@ -2831,15 +2834,15 @@
         <v>109</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.25">
@@ -2847,79 +2850,79 @@
         <v>112</v>
       </c>
       <c r="C107" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B108" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C108" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B108" s="3"/>
-      <c r="C108" s="5"/>
-    </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="3"/>
+      <c r="C109" s="5"/>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B110" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C110" s="3" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B111" t="s">
-        <v>45</v>
-      </c>
-      <c r="C111" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
+        <v>45</v>
+      </c>
+      <c r="C112" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
         <v>106</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C113" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B113" s="3" t="s">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B114" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C113" s="2"/>
-    </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B115" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>122</v>
-      </c>
+      <c r="C114" s="2"/>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C116" s="3"/>
+      <c r="C116" s="3" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B117" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C117" s="6" t="s">
-        <v>120</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C117" s="3"/>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B118" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B119" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.25">
@@ -2927,15 +2930,15 @@
         <v>117</v>
       </c>
       <c r="C120" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B121" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C121" s="6" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B122" t="s">
-        <v>18</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.25">

--- a/src/SyntacticAnalyzer/Grammar.xlsx
+++ b/src/SyntacticAnalyzer/Grammar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\General\Trabajos\ProgrammingLanguages\src\SyntacticAnalyzer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56F37EC-D2A6-49D3-ADC3-DEEB2B1259E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91002FB-19A2-410D-B512-4993C6077BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="149">
   <si>
     <t>S</t>
   </si>
@@ -287,12 +287,6 @@
     <t>SubProcess</t>
   </si>
   <si>
-    <t>SubProcess Process</t>
-  </si>
-  <si>
-    <t>token_pyc</t>
-  </si>
-  <si>
     <t>SetArrayDimension</t>
   </si>
   <si>
@@ -625,6 +619,613 @@
     <t>Else</t>
   </si>
   <si>
+    <t>ElseIf</t>
+  </si>
+  <si>
+    <t>Expression BooleanExpressionOp</t>
+  </si>
+  <si>
+    <t>BooleanBinaryOp BooleanExpression BooleanExpressionOp</t>
+  </si>
+  <si>
+    <t>For</t>
+  </si>
+  <si>
+    <t>ForWithStep</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">token_neg </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NumericalExpression</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NumericalExpression</t>
+    </r>
+  </si>
+  <si>
+    <t>ForBody</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">para </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">id </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>token_asig</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Expression </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">hasta </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NumericalExpression ForWithStep</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>con paso</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Expression ForBody</t>
+    </r>
+  </si>
+  <si>
+    <t>While</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>token_igual</t>
+  </si>
+  <si>
+    <t>According</t>
+  </si>
+  <si>
+    <t>AccordingBody</t>
+  </si>
+  <si>
+    <t>AccordingCaseList</t>
+  </si>
+  <si>
+    <t>AccordingDefault</t>
+  </si>
+  <si>
+    <t>AccordingCaseList AccordingDefault</t>
+  </si>
+  <si>
+    <t>AccordingCase</t>
+  </si>
+  <si>
+    <t>AccordingCase AccordingCaseList</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>segun</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id hacer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> AccordingBody </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>finsegun</t>
+    </r>
+  </si>
+  <si>
+    <t>SetArrayDimensionList</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dimension id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ArrayDimensions SetArrayDimensionList </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>token_pyc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>token_coma id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ArrayDimensions SetArrayDimensionList</t>
+    </r>
+  </si>
+  <si>
+    <t>ProcessClose</t>
+  </si>
+  <si>
+    <t>finproceso</t>
+  </si>
+  <si>
+    <t>finalgoritmo</t>
+  </si>
+  <si>
+    <t>ProcessOpen</t>
+  </si>
+  <si>
+    <t>proceso</t>
+  </si>
+  <si>
+    <t>algoritmo</t>
+  </si>
+  <si>
+    <r>
+      <t>ProcessOpen</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ProcessBody ProcessClose</t>
+    </r>
+  </si>
+  <si>
+    <t>SubProcessClose</t>
+  </si>
+  <si>
+    <t>SubProcessOpen</t>
+  </si>
+  <si>
+    <t>subproceso</t>
+  </si>
+  <si>
+    <t>subalgoritmo</t>
+  </si>
+  <si>
+    <t>finsubproceso</t>
+  </si>
+  <si>
+    <t>finsubalgoritmo</t>
+  </si>
+  <si>
+    <t>token_pot</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SubProcess Process </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eof</t>
+    </r>
+  </si>
+  <si>
+    <t>limpiar token_pyc</t>
+  </si>
+  <si>
+    <t>CmdWaitUnitTime</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">esperar </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expression</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CmdWaitUnitTime</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> token_pyc</t>
+    </r>
+  </si>
+  <si>
+    <t>segundos</t>
+  </si>
+  <si>
+    <t>milisegundos</t>
+  </si>
+  <si>
+    <t>borrar token_pyc</t>
+  </si>
+  <si>
+    <t>AccordingAction</t>
+  </si>
+  <si>
+    <t>AccordingActionList</t>
+  </si>
+  <si>
+    <t>AccordingAction AccordingActionList</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">de otro modo token_dosp </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AccordingActionList</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">caso </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Expression </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">token_dosp </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AccordingActionList</t>
+    </r>
+  </si>
+  <si>
+    <t>ForAction</t>
+  </si>
+  <si>
+    <t>ForActionList</t>
+  </si>
+  <si>
+    <t>ForAction ForActionList</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hacer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ForActionList </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>finpara</t>
+    </r>
+  </si>
+  <si>
+    <t>IfAction</t>
+  </si>
+  <si>
+    <t>IfActionList</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>si</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> BooleanExpression </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>entonces</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> IfActionList ElseIf </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>finsi</t>
+    </r>
+  </si>
+  <si>
+    <t>IfAction IfActionList</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">sino </t>
     </r>
@@ -636,255 +1237,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ProcessBody</t>
-    </r>
-  </si>
-  <si>
-    <t>ElseIf</t>
-  </si>
-  <si>
-    <t>Expression BooleanExpressionOp</t>
-  </si>
-  <si>
-    <t>BooleanBinaryOp BooleanExpression BooleanExpressionOp</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>si</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> BooleanExpression </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>entonces</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ProcessBody ElseIf </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>finsi</t>
-    </r>
-  </si>
-  <si>
-    <t>For</t>
-  </si>
-  <si>
-    <t>ForWithStep</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">token_neg </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>NumericalExpression</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">id </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>NumericalExpression</t>
-    </r>
-  </si>
-  <si>
-    <t>ForBody</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hacer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ProcessBody </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>finpara</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">para </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">id </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>token_asig</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Expression </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">hasta </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>NumericalExpression ForWithStep</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>con paso</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Expression ForBody</t>
-    </r>
-  </si>
-  <si>
-    <t>While</t>
-  </si>
-  <si>
-    <t>Repeat</t>
+      <t>IfActionList</t>
+    </r>
+  </si>
+  <si>
+    <t>RepeatAction</t>
+  </si>
+  <si>
+    <t>RepeatActionList</t>
+  </si>
+  <si>
+    <t>RepeatAction RepeatActionList</t>
   </si>
   <si>
     <r>
@@ -906,7 +1269,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">ProcessBody </t>
+      <t xml:space="preserve">RepeatActionList </t>
     </r>
     <r>
       <rPr>
@@ -931,6 +1294,71 @@
     </r>
   </si>
   <si>
+    <t>SubProcessAction</t>
+  </si>
+  <si>
+    <t>SubProcessActionList</t>
+  </si>
+  <si>
+    <t>SubProcessAction SubProcessActionList</t>
+  </si>
+  <si>
+    <r>
+      <t>SubProcessOpen</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> id token_asig id token_par_izq </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">IdFullList </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">token_par_der </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SubProcessActionList SubProcessClose</t>
+    </r>
+  </si>
+  <si>
+    <t>WhileAction</t>
+  </si>
+  <si>
+    <t>WhileActionList</t>
+  </si>
+  <si>
+    <t>WhileAction WhileActionList</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">mientras </t>
     </r>
@@ -963,7 +1391,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">ProcessBody </t>
+      <t xml:space="preserve">WhileActionList </t>
     </r>
     <r>
       <rPr>
@@ -978,306 +1406,10 @@
     </r>
   </si>
   <si>
-    <t>token_igual</t>
-  </si>
-  <si>
-    <t>According</t>
-  </si>
-  <si>
-    <t>AccordingBody</t>
-  </si>
-  <si>
-    <t>AccordingCaseList</t>
-  </si>
-  <si>
-    <t>AccordingDefault</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">de otro modo token_dosp </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ProcessBody</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">caso </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Expression </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">token_dosp </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ProcessBody</t>
-    </r>
-  </si>
-  <si>
-    <t>AccordingCaseList AccordingDefault</t>
-  </si>
-  <si>
-    <t>AccordingCase</t>
-  </si>
-  <si>
-    <t>AccordingCase AccordingCaseList</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>segun</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>id hacer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> AccordingBody </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>finsegun</t>
-    </r>
-  </si>
-  <si>
-    <t>SetArrayDimensionList</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dimension id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ArrayDimensions SetArrayDimensionList </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>token_pyc</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>token_coma id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ArrayDimensions SetArrayDimensionList</t>
-    </r>
-  </si>
-  <si>
-    <t>ProcessClose</t>
-  </si>
-  <si>
-    <t>finproceso</t>
-  </si>
-  <si>
-    <t>finalgoritmo</t>
-  </si>
-  <si>
-    <t>ProcessOpen</t>
-  </si>
-  <si>
-    <t>proceso</t>
-  </si>
-  <si>
-    <t>algoritmo</t>
-  </si>
-  <si>
-    <r>
-      <t>ProcessOpen</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ProcessBody ProcessClose</t>
-    </r>
-  </si>
-  <si>
-    <t>SubProcessClose</t>
-  </si>
-  <si>
-    <t>SubProcessOpen</t>
-  </si>
-  <si>
-    <t>subproceso</t>
-  </si>
-  <si>
-    <t>subalgoritmo</t>
-  </si>
-  <si>
-    <t>finsubproceso</t>
-  </si>
-  <si>
-    <t>finsubalgoritmo</t>
-  </si>
-  <si>
-    <r>
-      <t>SubProcessOpen</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> id token_asig id token_par_izq </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">IdFullList </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">token_par_der </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ProcessBody SubProcessClose</t>
-    </r>
-  </si>
-  <si>
-    <t>token_pot</t>
+    <t>funcion</t>
+  </si>
+  <si>
+    <t>finfuncion</t>
   </si>
 </sst>
 </file>
@@ -1426,7 +1558,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1606,12 +1738,6 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1773,12 +1899,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
@@ -2137,24 +2262,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C132"/>
+  <dimension ref="B2:C204"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="C183" sqref="C183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="28.28515625" customWidth="1"/>
-    <col min="3" max="3" width="92.42578125" customWidth="1"/>
+    <col min="3" max="3" width="101.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>43</v>
+      <c r="C2" s="3" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
@@ -2163,847 +2288,1411 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>101</v>
+        <v>94</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>104</v>
+        <v>91</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="5"/>
+        <v>91</v>
+      </c>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>100</v>
+        <v>92</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="6"/>
+        <v>92</v>
+      </c>
+      <c r="C10" s="5"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>66</v>
+      <c r="B12" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C13" s="2"/>
+      <c r="B13" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>6</v>
+        <v>121</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>12</v>
+      <c r="B16" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>13</v>
+      <c r="B17" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>14</v>
+      <c r="B18" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>15</v>
+      <c r="B19" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="B20" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="2"/>
+      <c r="B21" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="3"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>95</v>
-      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>72</v>
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="C24" s="2"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>75</v>
+      <c r="B25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C29" s="2"/>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>80</v>
+        <v>11</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>81</v>
+        <v>11</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>69</v>
-      </c>
       <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="2"/>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="3" t="s">
+      <c r="C45" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>116</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C53" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="3" t="s">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C54" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="3" t="s">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C55" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="3" t="s">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C56" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="3" t="s">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C57" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="3" t="s">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C58" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="3" t="s">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C59" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="3" t="s">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C60" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="3" t="s">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C61" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="3"/>
-      <c r="C46" s="6"/>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C48" s="6"/>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="3" t="s">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62" s="3"/>
+      <c r="C62" s="5"/>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B64" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" s="5"/>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C67" s="4" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C54" s="1"/>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>56</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>57</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>57</v>
-      </c>
-      <c r="C57" s="1"/>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C58" s="1"/>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>34</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>34</v>
-      </c>
-      <c r="C60" s="1"/>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C61" s="1"/>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>83</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>87</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>84</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>84</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C66" s="1"/>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>52</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>53</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>32</v>
+        <v>7</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>53</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>59</v>
+        <v>7</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>53</v>
-      </c>
-      <c r="C70" s="3"/>
+      <c r="C70" s="1"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C71" s="1"/>
+      <c r="B71" t="s">
+        <v>54</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="3" t="s">
+      <c r="B72" t="s">
         <v>55</v>
       </c>
-      <c r="C72" s="6" t="s">
-        <v>41</v>
+      <c r="C72" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="B73" t="s">
+        <v>55</v>
+      </c>
+      <c r="C73" s="1"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C74" s="3"/>
+      <c r="C74" s="1"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
+      <c r="B75" t="s">
+        <v>34</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>82</v>
-      </c>
+      <c r="B76" t="s">
+        <v>34</v>
+      </c>
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C77" s="1"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>46</v>
-      </c>
-      <c r="C78" t="s">
+        <v>79</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B79" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B80" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B84" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B85" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B86" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B87" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>46</v>
-      </c>
-      <c r="C79" t="s">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B88" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B89" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C89" s="3"/>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>83</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>80</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>46</v>
-      </c>
-      <c r="C80" t="s">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>80</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C93" s="1"/>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>50</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
-        <v>46</v>
-      </c>
-      <c r="C81" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
-        <v>46</v>
-      </c>
-      <c r="C82" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
-        <v>64</v>
-      </c>
-      <c r="C84" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
-        <v>65</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
-        <v>47</v>
-      </c>
-      <c r="C88" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B91" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B92" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B93" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B94" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B95" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="C95" s="3" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B96" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>83</v>
+      <c r="B96" t="s">
+        <v>51</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B97" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="B97" t="s">
+        <v>51</v>
+      </c>
+      <c r="C97" s="3"/>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B98" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="C98" s="1"/>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>45</v>
+        <v>53</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>91</v>
+        <v>39</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>44</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C101" s="3"/>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B102" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C103" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" s="3" t="s">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>110</v>
+        <v>130</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>111</v>
+        <v>130</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>113</v>
+        <v>130</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>114</v>
+        <v>130</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B109" s="3"/>
-      <c r="C109" s="5"/>
+      <c r="B109" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" s="3" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B111" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B112" t="s">
-        <v>45</v>
-      </c>
-      <c r="C112" t="s">
-        <v>107</v>
+      <c r="B112" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B113" t="s">
-        <v>106</v>
-      </c>
-      <c r="C113" t="s">
-        <v>108</v>
+      <c r="B113" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C114" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C114" s="3"/>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B116" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>122</v>
+      <c r="B116" t="s">
+        <v>44</v>
+      </c>
+      <c r="C116" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B117" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C117" s="3"/>
+      <c r="B117" t="s">
+        <v>44</v>
+      </c>
+      <c r="C117" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B118" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C118" s="6" t="s">
-        <v>120</v>
+      <c r="B118" t="s">
+        <v>44</v>
+      </c>
+      <c r="C118" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B119" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>121</v>
+      <c r="B119" t="s">
+        <v>44</v>
+      </c>
+      <c r="C119" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B120" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B121" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>119</v>
+      <c r="B120" t="s">
+        <v>44</v>
+      </c>
+      <c r="C120" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>62</v>
+      </c>
+      <c r="C122" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B125" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>52</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B126" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C126" s="7" t="s">
-        <v>16</v>
+      <c r="B126" t="s">
+        <v>45</v>
+      </c>
+      <c r="C126" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B127" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C127" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B128" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>10</v>
+      <c r="B127" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B129" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C129" s="6" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B130" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B131" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B132" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B133" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B134" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B135" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B136" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B137" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B138" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B139" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B140" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C140" s="3"/>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B141" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B142" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B143" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B144" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B145" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B146" s="3"/>
+      <c r="C146" s="4"/>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B147" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B148" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B149" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B150" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B151" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B152" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B153" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B154" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B155" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B156" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B157" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B158" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C158" s="3"/>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
+        <v>43</v>
+      </c>
+      <c r="C160" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
+        <v>97</v>
+      </c>
+      <c r="C161" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B162" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C162" s="2"/>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B164" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B165" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C165" s="3"/>
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B166" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B167" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B168" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B169" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B170" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B171" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B172" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B173" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B174" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B175" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="176" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B176" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C176" s="3"/>
+    </row>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B177" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B178" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B179" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B180" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B181" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B182" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B184" t="s">
+        <v>18</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="186" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B186" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C130" s="6" t="s">
+      <c r="C186" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B187" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="188" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B188" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="189" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B189" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B190" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B191" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C191" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B132" t="s">
-        <v>91</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>94</v>
-      </c>
+    <row r="193" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B193" t="s">
+        <v>86</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="194" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B194" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="195" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B195" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B196" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="197" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B197" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B198" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B199" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="200" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B200" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="201" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B201" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="202" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B202" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="203" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B203" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="204" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B204" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C204" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/src/SyntacticAnalyzer/Grammar.xlsx
+++ b/src/SyntacticAnalyzer/Grammar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\General\Trabajos\ProgrammingLanguages\src\SyntacticAnalyzer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455E3FC6-693F-48B0-B1BF-FA120E868825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14EAF22-084F-455C-A0A8-081E91749E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="169">
   <si>
     <t>S</t>
   </si>
@@ -874,9 +874,6 @@
     <t>milisegundos</t>
   </si>
   <si>
-    <t>borrar token_pyc</t>
-  </si>
-  <si>
     <t>AccordingAction</t>
   </si>
   <si>
@@ -1121,6 +1118,299 @@
     <t>SubProcessAction SubProcessActionList</t>
   </si>
   <si>
+    <t>WhileAction</t>
+  </si>
+  <si>
+    <t>WhileActionList</t>
+  </si>
+  <si>
+    <t>WhileAction WhileActionList</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">mientras </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">BooleanExpression </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">hacer </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">WhileActionList </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>finmientras</t>
+    </r>
+  </si>
+  <si>
+    <t>funcion</t>
+  </si>
+  <si>
+    <t>finfuncion</t>
+  </si>
+  <si>
+    <t>IdGetter</t>
+  </si>
+  <si>
+    <t>IdGetterArray</t>
+  </si>
+  <si>
+    <r>
+      <t>leer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> IdGetter</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> token_pyc</t>
+    </r>
+  </si>
+  <si>
+    <t>NumericalExpression NumericalExpressionList</t>
+  </si>
+  <si>
+    <r>
+      <t>token_coma</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> NumericalExpressionFullList</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">token_menos </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NumericalExpressionOp</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IdGetterArray</t>
+    </r>
+  </si>
+  <si>
+    <t>token_mod</t>
+  </si>
+  <si>
+    <r>
+      <t>Id</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NumericalExpressionOp</t>
+    </r>
+  </si>
+  <si>
+    <t>IdAction</t>
+  </si>
+  <si>
+    <t>FunctionCall</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>token_asig</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Expression</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> token_pyc</t>
+    </r>
+  </si>
+  <si>
+    <t>IdActionCaller</t>
+  </si>
+  <si>
+    <t>ArrayDimensions Asig</t>
+  </si>
+  <si>
+    <r>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> IdAction</t>
+    </r>
+  </si>
+  <si>
+    <t>token_pyc</t>
+  </si>
+  <si>
+    <t>CmdWait</t>
+  </si>
+  <si>
+    <t>tecla</t>
+  </si>
+  <si>
+    <t>Expression CmdWaitUnitTime</t>
+  </si>
+  <si>
+    <t>limpiar pantalla token_pyc</t>
+  </si>
+  <si>
+    <t>token_y</t>
+  </si>
+  <si>
+    <t>token_o</t>
+  </si>
+  <si>
+    <t>borrar pantalla token_pyc</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">esperar </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CmdWait</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> token_pyc</t>
+    </r>
+  </si>
+  <si>
+    <t>SubProcessReturn</t>
+  </si>
+  <si>
     <r>
       <t>SubProcessOpen</t>
     </r>
@@ -1133,28 +1423,28 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> id token_asig id token_par_izq </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">IdFullList </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">token_par_der </t>
+      <t xml:space="preserve"> id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SubProcessReturn</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -1168,294 +1458,80 @@
     </r>
   </si>
   <si>
-    <t>WhileAction</t>
-  </si>
-  <si>
-    <t>WhileActionList</t>
-  </si>
-  <si>
-    <t>WhileAction WhileActionList</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">mientras </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">BooleanExpression </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">hacer </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">WhileActionList </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>finmientras</t>
-    </r>
-  </si>
-  <si>
-    <t>funcion</t>
-  </si>
-  <si>
-    <t>finfuncion</t>
-  </si>
-  <si>
-    <t>IdGetter</t>
-  </si>
-  <si>
-    <t>IdGetterArray</t>
-  </si>
-  <si>
-    <r>
-      <t>leer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> IdGetter</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> token_pyc</t>
-    </r>
-  </si>
-  <si>
-    <t>NumericalExpression NumericalExpressionList</t>
-  </si>
-  <si>
-    <r>
-      <t>token_coma</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> NumericalExpressionFullList</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">token_menos </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>NumericalExpressionOp</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">id </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>IdGetterArray</t>
-    </r>
-  </si>
-  <si>
-    <t>token_mod</t>
-  </si>
-  <si>
-    <r>
-      <t>Id</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>NumericalExpressionOp</t>
-    </r>
-  </si>
-  <si>
-    <t>IdAction</t>
-  </si>
-  <si>
-    <t>FunctionCall</t>
-  </si>
-  <si>
-    <t>token_par_izq ExpressionFullList token_par_der</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>token_asig</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Expression</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> token_pyc</t>
-    </r>
-  </si>
-  <si>
-    <t>IdActionCaller</t>
-  </si>
-  <si>
-    <t>ArrayDimensions Asig</t>
-  </si>
-  <si>
-    <r>
-      <t>id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> IdAction</t>
-    </r>
-  </si>
-  <si>
-    <t>token_pyc</t>
-  </si>
-  <si>
-    <t>CmdWait</t>
-  </si>
-  <si>
-    <t>tecla</t>
-  </si>
-  <si>
-    <t>Expression CmdWaitUnitTime</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">esperar </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CmdWait</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> token_pyc</t>
-    </r>
-  </si>
-  <si>
-    <t>limpiar pantalla token_pyc</t>
-  </si>
-  <si>
-    <t>token_y</t>
-  </si>
-  <si>
-    <t>token_o</t>
+    <r>
+      <t>token_asig id token_par_izq</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> IdFullList </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>token_par_der</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FunctionCall </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>token_pyc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>token_par_izq</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ExpressionFullList </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>token_par_der</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2308,10 +2384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C224"/>
+  <dimension ref="B2:C226"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2353,7 +2429,7 @@
         <v>89</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
@@ -2375,7 +2451,7 @@
         <v>87</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
@@ -2386,7 +2462,7 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>84</v>
@@ -2394,15 +2470,15 @@
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C12" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>27</v>
@@ -2410,7 +2486,7 @@
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>2</v>
@@ -2418,7 +2494,7 @@
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>76</v>
@@ -2426,7 +2502,7 @@
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>62</v>
@@ -2434,7 +2510,7 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>82</v>
@@ -2442,7 +2518,7 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>42</v>
@@ -2450,7 +2526,7 @@
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>81</v>
@@ -2458,15 +2534,15 @@
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C21" s="3"/>
     </row>
@@ -2490,7 +2566,7 @@
         <v>6</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
@@ -2538,7 +2614,7 @@
         <v>11</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
@@ -2605,7 +2681,7 @@
         <v>65</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
@@ -2613,7 +2689,7 @@
         <v>65</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
@@ -2662,7 +2738,7 @@
         <v>27</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
@@ -2670,7 +2746,7 @@
         <v>27</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
@@ -2678,7 +2754,7 @@
         <v>27</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>113</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
@@ -2686,23 +2762,23 @@
         <v>27</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
@@ -2802,7 +2878,7 @@
         <v>72</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
@@ -2898,7 +2974,7 @@
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>84</v>
@@ -2906,15 +2982,15 @@
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C86" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>27</v>
@@ -2922,7 +2998,7 @@
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>2</v>
@@ -2930,7 +3006,7 @@
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>76</v>
@@ -2938,7 +3014,7 @@
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>62</v>
@@ -2946,7 +3022,7 @@
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>82</v>
@@ -2954,7 +3030,7 @@
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>42</v>
@@ -2962,7 +3038,7 @@
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>81</v>
@@ -2970,15 +3046,15 @@
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C94" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C95" s="3"/>
     </row>
@@ -2987,7 +3063,7 @@
         <v>78</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
@@ -3011,10 +3087,10 @@
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
@@ -3033,15 +3109,15 @@
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>6</v>
@@ -3049,26 +3125,26 @@
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
@@ -3076,15 +3152,15 @@
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>31</v>
@@ -3092,7 +3168,7 @@
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C112" s="3"/>
     </row>
@@ -3112,7 +3188,7 @@
         <v>50</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
@@ -3155,12 +3231,12 @@
         <v>62</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B123" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>84</v>
@@ -3168,15 +3244,15 @@
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B124" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C124" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B125" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>27</v>
@@ -3184,7 +3260,7 @@
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B126" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>2</v>
@@ -3192,7 +3268,7 @@
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B127" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>76</v>
@@ -3200,7 +3276,7 @@
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B128" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>62</v>
@@ -3208,7 +3284,7 @@
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B129" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>82</v>
@@ -3216,7 +3292,7 @@
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B130" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>42</v>
@@ -3224,7 +3300,7 @@
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B131" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>81</v>
@@ -3232,15 +3308,15 @@
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B132" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B133" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C133" s="3"/>
     </row>
@@ -3249,7 +3325,7 @@
         <v>43</v>
       </c>
       <c r="C135" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.25">
@@ -3257,7 +3333,7 @@
         <v>43</v>
       </c>
       <c r="C136" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.25">
@@ -3289,7 +3365,7 @@
         <v>59</v>
       </c>
       <c r="C141" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.25">
@@ -3297,7 +3373,7 @@
         <v>60</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.25">
@@ -3339,7 +3415,7 @@
         <v>26</v>
       </c>
       <c r="C150" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.25">
@@ -3461,12 +3537,12 @@
         <v>82</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B167" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>84</v>
@@ -3474,15 +3550,15 @@
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B168" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C168" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B169" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>27</v>
@@ -3490,7 +3566,7 @@
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B170" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>2</v>
@@ -3498,7 +3574,7 @@
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B171" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>76</v>
@@ -3506,7 +3582,7 @@
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B172" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>62</v>
@@ -3514,7 +3590,7 @@
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B173" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>82</v>
@@ -3522,7 +3598,7 @@
     </row>
     <row r="174" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B174" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>42</v>
@@ -3530,7 +3606,7 @@
     </row>
     <row r="175" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B175" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C175" s="3" t="s">
         <v>81</v>
@@ -3538,15 +3614,15 @@
     </row>
     <row r="176" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B176" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C176" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="C176" s="3" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="177" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B177" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C177" s="3"/>
     </row>
@@ -3577,7 +3653,7 @@
         <v>41</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.25">
@@ -3588,7 +3664,7 @@
     </row>
     <row r="185" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B185" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>84</v>
@@ -3596,15 +3672,15 @@
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B186" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C186" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B187" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C187" s="3" t="s">
         <v>27</v>
@@ -3612,7 +3688,7 @@
     </row>
     <row r="188" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B188" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>2</v>
@@ -3620,7 +3696,7 @@
     </row>
     <row r="189" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B189" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>76</v>
@@ -3628,7 +3704,7 @@
     </row>
     <row r="190" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B190" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>62</v>
@@ -3636,7 +3712,7 @@
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B191" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>82</v>
@@ -3644,7 +3720,7 @@
     </row>
     <row r="192" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B192" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>42</v>
@@ -3652,7 +3728,7 @@
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B193" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C193" s="3" t="s">
         <v>81</v>
@@ -3660,15 +3736,15 @@
     </row>
     <row r="194" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B194" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C194" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="C194" s="3" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="195" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B195" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C195" s="3"/>
     </row>
@@ -3677,7 +3753,7 @@
         <v>102</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="197" spans="2:3" x14ac:dyDescent="0.25">
@@ -3701,7 +3777,7 @@
         <v>103</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="200" spans="2:3" x14ac:dyDescent="0.25">
@@ -3720,60 +3796,58 @@
         <v>105</v>
       </c>
     </row>
+    <row r="202" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B202" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
     <row r="203" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B203" t="s">
+      <c r="B203" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C203" s="3"/>
+    </row>
+    <row r="205" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B205" t="s">
         <v>18</v>
       </c>
-      <c r="C203" s="2" t="s">
+      <c r="C205" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="204" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B204" t="s">
+    <row r="206" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B206" t="s">
         <v>18</v>
       </c>
-      <c r="C204" s="2" t="s">
+      <c r="C206" s="2" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="206" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B206" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C206" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="207" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B207" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C207" s="6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="208" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B208" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C208" s="6" t="s">
-        <v>17</v>
+      <c r="C208" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="209" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B209" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C209" s="5" t="s">
-        <v>10</v>
+      <c r="C209" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="210" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B210" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C210" s="5" t="s">
-        <v>8</v>
+      <c r="C210" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="211" spans="2:3" x14ac:dyDescent="0.25">
@@ -3781,102 +3855,118 @@
         <v>32</v>
       </c>
       <c r="C211" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B212" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="213" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B213" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C213" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="213" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B213" t="s">
+    <row r="215" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B215" t="s">
         <v>81</v>
       </c>
-      <c r="C213" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="214" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B214" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C214" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="215" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B215" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C215" t="s">
-        <v>155</v>
+      <c r="C215" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B216" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B217" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C217" s="3" t="s">
-        <v>2</v>
+        <v>134</v>
+      </c>
+      <c r="C217" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="218" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B218" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
     </row>
     <row r="219" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B219" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B220" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B221" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B222" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B223" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>138</v>
+        <v>42</v>
       </c>
     </row>
     <row r="224" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B224" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C224" s="3"/>
+        <v>134</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="225" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B225" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="226" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B226" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C226" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/src/SyntacticAnalyzer/Grammar.xlsx
+++ b/src/SyntacticAnalyzer/Grammar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\General\Trabajos\ProgrammingLanguages\src\SyntacticAnalyzer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137713DB-6E5E-4357-B44C-06F3DC3D7C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838EE2F3-8506-48D1-91AC-EBD2306CC22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="176">
   <si>
     <t>S</t>
   </si>
@@ -52,9 +52,6 @@
     <t>token_real</t>
   </si>
   <si>
-    <t>token_cadena</t>
-  </si>
-  <si>
     <t>BinaryOp</t>
   </si>
   <si>
@@ -469,6 +466,960 @@
     </r>
   </si>
   <si>
+    <t>ForAction</t>
+  </si>
+  <si>
+    <t>ForActionList</t>
+  </si>
+  <si>
+    <t>ForAction ForActionList</t>
+  </si>
+  <si>
+    <t>IfAction</t>
+  </si>
+  <si>
+    <t>IfActionList</t>
+  </si>
+  <si>
+    <t>IfAction IfActionList</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">sino </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IfActionList</t>
+    </r>
+  </si>
+  <si>
+    <t>RepeatAction</t>
+  </si>
+  <si>
+    <t>RepeatActionList</t>
+  </si>
+  <si>
+    <t>RepeatAction RepeatActionList</t>
+  </si>
+  <si>
+    <t>SubProcessAction</t>
+  </si>
+  <si>
+    <t>SubProcessActionList</t>
+  </si>
+  <si>
+    <t>SubProcessAction SubProcessActionList</t>
+  </si>
+  <si>
+    <t>WhileAction</t>
+  </si>
+  <si>
+    <t>WhileActionList</t>
+  </si>
+  <si>
+    <t>WhileAction WhileActionList</t>
+  </si>
+  <si>
+    <t>funcion</t>
+  </si>
+  <si>
+    <t>finfuncion</t>
+  </si>
+  <si>
+    <t>token_mod</t>
+  </si>
+  <si>
+    <t>FunctionCall</t>
+  </si>
+  <si>
+    <t>ArrayDimensions Asig</t>
+  </si>
+  <si>
+    <t>CmdWait</t>
+  </si>
+  <si>
+    <t>tecla</t>
+  </si>
+  <si>
+    <t>Expression CmdWaitUnitTime</t>
+  </si>
+  <si>
+    <t>limpiar pantalla token_pyc</t>
+  </si>
+  <si>
+    <t>token_y</t>
+  </si>
+  <si>
+    <t>token_o</t>
+  </si>
+  <si>
+    <t>borrar pantalla token_pyc</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">esperar </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CmdWait</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> token_pyc</t>
+    </r>
+  </si>
+  <si>
+    <t>SubProcessReturn</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>si</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Expression </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>entonces</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> IfActionList ElseIf </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>finsi</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">repetir </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">RepeatActionList </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">hasta que </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expression</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">mientras </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Expression </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">hacer </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">WhileActionList </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>finmientras</t>
+    </r>
+  </si>
+  <si>
+    <t>StarterId</t>
+  </si>
+  <si>
+    <t>StarterIdComplement</t>
+  </si>
+  <si>
+    <t>CmdReadId</t>
+  </si>
+  <si>
+    <t>CmdReadIdComplement</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">leer </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CmdReadId</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> token_pyc</t>
+    </r>
+  </si>
+  <si>
+    <t>IdGetValue</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IdGetValueComplement</t>
+    </r>
+  </si>
+  <si>
+    <t>IdGetValueComplement</t>
+  </si>
+  <si>
+    <t>IdFullList</t>
+  </si>
+  <si>
+    <t>IdList</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IdList</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">definir </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IdFullList</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> como</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DefType</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> token_pyc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">token_coma </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IdFullList</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>token_asig</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Expression </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>token_pyc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>StarterIdComplement</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FunctionCall </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>token_pyc</t>
+    </r>
+  </si>
+  <si>
+    <t>token_pyc</t>
+  </si>
+  <si>
+    <t>FunctionCallParams</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>token_par_izq</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> FunctionCallParams </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>token_par_der</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">token_cor_izq </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ExpressionFullList </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>token_cor_der</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>con paso</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Expression</t>
+    </r>
+  </si>
+  <si>
+    <t>ForComplement1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">para </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ForComplement1</t>
+    </r>
+  </si>
+  <si>
+    <t>ForComplement2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id token_asig</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Expression ForComplement2</t>
+    </r>
+  </si>
+  <si>
+    <t>ForComplement3</t>
+  </si>
+  <si>
+    <t>ForComplement4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hasta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Expression ForComplement3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hacer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ForActionList </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>finpara</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>con paso</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Expression ForComplement4</t>
+    </r>
+  </si>
+  <si>
+    <t>SubProcessActionList SubProcessClose</t>
+  </si>
+  <si>
+    <t>SubProcessList</t>
+  </si>
+  <si>
+    <t>SubProcess SubProcessList</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SubProcessList Process </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eof</t>
+    </r>
+  </si>
+  <si>
+    <t>IdEmptyList</t>
+  </si>
+  <si>
+    <t>SubProcessParams</t>
+  </si>
+  <si>
+    <t>SubProcessComplement</t>
+  </si>
+  <si>
+    <r>
+      <t>SubProcessOpen</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SubProcessComplement</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">token_par_izq </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IdEmptyList</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> token_par_der </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SubProcessActionList SubProcessClose</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">token_asig id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SubProcessParams</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>segun</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Expression</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hacer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> AccordingBody </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>finsegun</t>
+    </r>
+  </si>
+  <si>
+    <t>CmdReadIdList</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CmdReadIdComplement</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CmdReadIdList</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">token_coma </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CmdReadId</t>
+    </r>
+  </si>
+  <si>
+    <t>StringComplement</t>
+  </si>
+  <si>
+    <t>sin saltar</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">token_cadena </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>StringComplement</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">caso </t>
     </r>
@@ -480,7 +1431,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Expression </t>
+      <t xml:space="preserve">ExpressionFullList </t>
     </r>
     <r>
       <rPr>
@@ -505,937 +1456,7 @@
     </r>
   </si>
   <si>
-    <t>ForAction</t>
-  </si>
-  <si>
-    <t>ForActionList</t>
-  </si>
-  <si>
-    <t>ForAction ForActionList</t>
-  </si>
-  <si>
-    <t>IfAction</t>
-  </si>
-  <si>
-    <t>IfActionList</t>
-  </si>
-  <si>
-    <t>IfAction IfActionList</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">sino </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>IfActionList</t>
-    </r>
-  </si>
-  <si>
-    <t>RepeatAction</t>
-  </si>
-  <si>
-    <t>RepeatActionList</t>
-  </si>
-  <si>
-    <t>RepeatAction RepeatActionList</t>
-  </si>
-  <si>
-    <t>SubProcessAction</t>
-  </si>
-  <si>
-    <t>SubProcessActionList</t>
-  </si>
-  <si>
-    <t>SubProcessAction SubProcessActionList</t>
-  </si>
-  <si>
-    <t>WhileAction</t>
-  </si>
-  <si>
-    <t>WhileActionList</t>
-  </si>
-  <si>
-    <t>WhileAction WhileActionList</t>
-  </si>
-  <si>
-    <t>funcion</t>
-  </si>
-  <si>
-    <t>finfuncion</t>
-  </si>
-  <si>
-    <t>token_mod</t>
-  </si>
-  <si>
-    <t>FunctionCall</t>
-  </si>
-  <si>
-    <t>ArrayDimensions Asig</t>
-  </si>
-  <si>
-    <t>CmdWait</t>
-  </si>
-  <si>
-    <t>tecla</t>
-  </si>
-  <si>
-    <t>Expression CmdWaitUnitTime</t>
-  </si>
-  <si>
-    <t>limpiar pantalla token_pyc</t>
-  </si>
-  <si>
-    <t>token_y</t>
-  </si>
-  <si>
-    <t>token_o</t>
-  </si>
-  <si>
-    <t>borrar pantalla token_pyc</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">esperar </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CmdWait</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> token_pyc</t>
-    </r>
-  </si>
-  <si>
-    <t>SubProcessReturn</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>si</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Expression </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>entonces</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> IfActionList ElseIf </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>finsi</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">repetir </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">RepeatActionList </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">hasta que </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expression</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">mientras </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Expression </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">hacer </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">WhileActionList </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>finmientras</t>
-    </r>
-  </si>
-  <si>
-    <t>StarterId</t>
-  </si>
-  <si>
-    <t>StarterIdComplement</t>
-  </si>
-  <si>
-    <t>CmdReadId</t>
-  </si>
-  <si>
-    <t>CmdReadIdComplement</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">leer </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CmdReadId</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> token_pyc</t>
-    </r>
-  </si>
-  <si>
-    <t>IdGetValue</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">id </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>IdGetValueComplement</t>
-    </r>
-  </si>
-  <si>
-    <t>IdGetValueComplement</t>
-  </si>
-  <si>
-    <t>IdFullList</t>
-  </si>
-  <si>
-    <t>IdList</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">id </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>IdList</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">definir </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>IdFullList</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> como</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> DefType</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> token_pyc</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">token_coma </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>IdFullList</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>token_asig</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Expression </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>token_pyc</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">id </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>StarterIdComplement</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">FunctionCall </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>token_pyc</t>
-    </r>
-  </si>
-  <si>
-    <t>token_pyc</t>
-  </si>
-  <si>
-    <t>FunctionCallParams</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>token_par_izq</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> FunctionCallParams </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>token_par_der</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">token_cor_izq </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ExpressionFullList </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>token_cor_der</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>con paso</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Expression</t>
-    </r>
-  </si>
-  <si>
-    <t>ForComplement1</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">para </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ForComplement1</t>
-    </r>
-  </si>
-  <si>
-    <t>ForComplement2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>id token_asig</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Expression ForComplement2</t>
-    </r>
-  </si>
-  <si>
-    <t>ForComplement3</t>
-  </si>
-  <si>
-    <t>ForComplement4</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hasta</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Expression ForComplement3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hacer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ForActionList </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>finpara</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>con paso</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Expression ForComplement4</t>
-    </r>
-  </si>
-  <si>
-    <t>SubProcessActionList SubProcessClose</t>
-  </si>
-  <si>
-    <t>SubProcessList</t>
-  </si>
-  <si>
-    <t>SubProcess SubProcessList</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SubProcessList Process </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>eof</t>
-    </r>
-  </si>
-  <si>
-    <t>IdEmptyList</t>
-  </si>
-  <si>
-    <t>SubProcessParams</t>
-  </si>
-  <si>
-    <t>SubProcessComplement</t>
-  </si>
-  <si>
-    <r>
-      <t>SubProcessOpen</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> id </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SubProcessComplement</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">token_par_izq </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>IdEmptyList</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> token_par_der </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SubProcessActionList SubProcessClose</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">token_asig id </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SubProcessParams</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>segun</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Expression</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> hacer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> AccordingBody </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>finsegun</t>
-    </r>
-  </si>
-  <si>
-    <t>CmdReadIdList</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">id </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CmdReadIdComplement</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CmdReadIdList</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">token_coma </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CmdReadId</t>
-    </r>
+    <t>IdGetValue StringComplement</t>
   </si>
 </sst>
 </file>
@@ -2288,10 +2309,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C225"/>
+  <dimension ref="B2:C228"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="C213" sqref="C213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2305,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
@@ -2314,83 +2335,83 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>95</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" s="5"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>2</v>
@@ -2398,55 +2419,55 @@
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C21" s="3"/>
     </row>
@@ -2456,10 +2477,10 @@
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
@@ -2470,63 +2491,63 @@
         <v>6</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
@@ -2534,74 +2555,74 @@
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
@@ -2609,132 +2630,132 @@
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C47" s="2"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
+        <v>168</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C56" s="2"/>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C58" s="2"/>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
+        <v>87</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
@@ -2742,7 +2763,7 @@
         <v>2</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
@@ -2758,7 +2779,7 @@
         <v>3</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
@@ -2766,7 +2787,7 @@
         <v>3</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
@@ -2782,7 +2803,7 @@
         <v>3</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
@@ -2790,7 +2811,7 @@
         <v>3</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
@@ -2798,7 +2819,7 @@
         <v>3</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
@@ -2806,7 +2827,7 @@
         <v>3</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
@@ -2815,24 +2836,24 @@
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C75" s="5"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
@@ -2840,7 +2861,7 @@
         <v>7</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
@@ -2848,7 +2869,7 @@
         <v>7</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
@@ -2856,7 +2877,7 @@
         <v>7</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
@@ -2864,23 +2885,23 @@
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C84" s="1"/>
     </row>
@@ -2889,15 +2910,15 @@
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C87" s="1"/>
     </row>
@@ -2906,39 +2927,39 @@
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C91" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>2</v>
@@ -2946,109 +2967,109 @@
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C103" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C105" s="3"/>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C107" s="1"/>
     </row>
@@ -3057,23 +3078,23 @@
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C111" s="1"/>
     </row>
@@ -3083,37 +3104,37 @@
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C113" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B115" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C115" s="5"/>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B117" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C117" s="5"/>
     </row>
@@ -3123,31 +3144,31 @@
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B119" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B120" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B121" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B122" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C122" s="3"/>
     </row>
@@ -3157,39 +3178,39 @@
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B124" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B125" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B126" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C126" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B127" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B128" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>2</v>
@@ -3197,55 +3218,55 @@
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B129" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B130" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B131" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B132" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B133" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B134" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B135" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C135" s="3"/>
     </row>
@@ -3254,36 +3275,36 @@
         <v>1</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B138" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B139" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C139" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B140" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C140" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B141" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>2</v>
@@ -3291,96 +3312,96 @@
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B142" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B143" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B144" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B145" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B146" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B147" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B148" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C148" s="3"/>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B149" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B150" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C150" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="C150" s="5" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B151" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B152" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C152" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="C152" s="5" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B153" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.25">
@@ -3389,39 +3410,39 @@
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B155" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B156" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B157" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C157" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B158" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B159" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>2</v>
@@ -3429,77 +3450,77 @@
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B160" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B161" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B162" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B163" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B164" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B165" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B166" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C166" s="3"/>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C168" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C169" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B170" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C170" s="2"/>
     </row>
@@ -3509,15 +3530,15 @@
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B172" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B173" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>6</v>
@@ -3525,381 +3546,399 @@
     </row>
     <row r="174" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B174" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="175" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B175" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="176" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B176" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>145</v>
-      </c>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B177" s="3"/>
+      <c r="C177" s="2"/>
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B178" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C178" s="3" t="s">
-        <v>166</v>
+        <v>171</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="179" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B179" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C179" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B180" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C180" t="s">
-        <v>129</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="C179" s="2"/>
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B181" s="3" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
     </row>
     <row r="182" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B182" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="183" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B183" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C183" s="3" t="s">
-        <v>59</v>
+        <v>104</v>
+      </c>
+      <c r="C183" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B184" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="185" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B185" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B186" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B187" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
     <row r="188" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B188" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>108</v>
+        <v>61</v>
       </c>
     </row>
     <row r="189" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B189" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C189" s="3"/>
+        <v>104</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="190" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B190" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C190" s="5" t="s">
-        <v>113</v>
+        <v>104</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B191" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C191" s="5" t="s">
-        <v>85</v>
+        <v>105</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="192" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B192" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C192" s="5" t="s">
-        <v>86</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="C192" s="3"/>
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B193" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C193" s="4" t="s">
-        <v>164</v>
+        <v>80</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="194" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B194" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C194" s="4" t="s">
-        <v>125</v>
+        <v>80</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="195" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B195" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C195" s="4" t="s">
-        <v>161</v>
+        <v>80</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="196" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B196" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C196" s="5"/>
+        <v>163</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="197" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B197" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C197" s="5" t="s">
-        <v>112</v>
+        <v>163</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="198" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B198" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C198" s="5" t="s">
-        <v>83</v>
+        <v>158</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="199" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B199" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C199" s="5" t="s">
-        <v>84</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="C199" s="5"/>
     </row>
     <row r="200" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B200" s="3" t="s">
-        <v>164</v>
+        <v>81</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>167</v>
+        <v>110</v>
       </c>
     </row>
     <row r="201" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B201" s="3" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>168</v>
+        <v>82</v>
       </c>
     </row>
     <row r="202" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B202" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C202" s="4" t="s">
-        <v>159</v>
+        <v>81</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="203" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B203" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="204" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B204" t="s">
+      <c r="B204" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="205" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B205" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="207" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B207" t="s">
+        <v>17</v>
+      </c>
+      <c r="C207" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C204" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="205" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B205" t="s">
-        <v>18</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="207" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B207" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C207" s="4" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="208" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B208" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C208" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="209" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B209" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C209" s="6" t="s">
+      <c r="B208" t="s">
         <v>17</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="210" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B210" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C210" s="5" t="s">
-        <v>10</v>
+        <v>31</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="211" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B211" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C211" s="5" t="s">
-        <v>8</v>
+        <v>31</v>
+      </c>
+      <c r="C211" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="212" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B212" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C212" s="5" t="s">
-        <v>9</v>
+        <v>31</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="213" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B213" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="214" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B214" t="s">
-        <v>61</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>128</v>
+      <c r="B214" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="215" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B215" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C215" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="216" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B216" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C216" t="s">
-        <v>129</v>
+        <v>31</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B217" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C217" s="3" t="s">
-        <v>27</v>
+      <c r="B217" t="s">
+        <v>60</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="218" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B218" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="219" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B219" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C219" s="3" t="s">
-        <v>59</v>
+        <v>107</v>
+      </c>
+      <c r="C219" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B220" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B221" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B222" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B223" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
     <row r="224" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B224" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
     </row>
     <row r="225" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B225" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C225" s="3"/>
+        <v>107</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="226" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B226" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="227" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B227" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="228" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B228" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C228" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
